--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tgfbr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H2">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N2">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O2">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P2">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q2">
-        <v>61.45877105311326</v>
+        <v>27.06943134039167</v>
       </c>
       <c r="R2">
-        <v>61.45877105311326</v>
+        <v>243.624882063525</v>
       </c>
       <c r="S2">
-        <v>0.01825461715225184</v>
+        <v>0.005945076203068326</v>
       </c>
       <c r="T2">
-        <v>0.01825461715225184</v>
+        <v>0.005945076203068325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H3">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N3">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P3">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q3">
-        <v>1157.042728884354</v>
+        <v>75.76642901954244</v>
       </c>
       <c r="R3">
-        <v>1157.042728884354</v>
+        <v>681.8978611758821</v>
       </c>
       <c r="S3">
-        <v>0.3436673347458787</v>
+        <v>0.01664006858849034</v>
       </c>
       <c r="T3">
-        <v>0.3436673347458787</v>
+        <v>0.01664006858849034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H4">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N4">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P4">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q4">
-        <v>2.325857887806645</v>
+        <v>0.1566609395028889</v>
       </c>
       <c r="R4">
-        <v>2.325857887806645</v>
+        <v>1.409948455526</v>
       </c>
       <c r="S4">
-        <v>0.0006908313421328116</v>
+        <v>3.440638304060787E-05</v>
       </c>
       <c r="T4">
-        <v>0.0006908313421328116</v>
+        <v>3.440638304060787E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H5">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.4789568437473</v>
+        <v>22.54136766666667</v>
       </c>
       <c r="N5">
-        <v>20.4789568437473</v>
+        <v>67.62410300000001</v>
       </c>
       <c r="O5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="P5">
-        <v>0.2553092345212588</v>
+        <v>0.2248474059696456</v>
       </c>
       <c r="Q5">
-        <v>418.5475537736868</v>
+        <v>29.87489357165856</v>
       </c>
       <c r="R5">
-        <v>418.5475537736868</v>
+        <v>268.874042144927</v>
       </c>
       <c r="S5">
-        <v>0.1243179000040086</v>
+        <v>0.006561220906663359</v>
       </c>
       <c r="T5">
-        <v>0.1243179000040086</v>
+        <v>0.006561220906663359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H6">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.00709324118281</v>
+        <v>20.424575</v>
       </c>
       <c r="N6">
-        <v>3.00709324118281</v>
+        <v>61.273725</v>
       </c>
       <c r="O6">
-        <v>0.03748914944243571</v>
+        <v>0.203732656096709</v>
       </c>
       <c r="P6">
-        <v>0.03748914944243571</v>
+        <v>0.2037326560967089</v>
       </c>
       <c r="Q6">
-        <v>64.75790242417111</v>
+        <v>417.7816655960917</v>
       </c>
       <c r="R6">
-        <v>64.75790242417111</v>
+        <v>3760.034990364825</v>
       </c>
       <c r="S6">
-        <v>0.01923453229018387</v>
+        <v>0.09175456281223957</v>
       </c>
       <c r="T6">
-        <v>0.01923453229018387</v>
+        <v>0.09175456281223955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H7">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.6125112846949</v>
+        <v>57.16769933333334</v>
       </c>
       <c r="N7">
-        <v>56.6125112846949</v>
+        <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="P7">
-        <v>0.7057828692497403</v>
+        <v>0.5702408607336045</v>
       </c>
       <c r="Q7">
-        <v>1219.153244586301</v>
+        <v>1169.356848099732</v>
       </c>
       <c r="R7">
-        <v>1219.153244586301</v>
+        <v>10524.21163289759</v>
       </c>
       <c r="S7">
-        <v>0.3621155345038616</v>
+        <v>0.2568179391400585</v>
       </c>
       <c r="T7">
-        <v>0.3621155345038616</v>
+        <v>0.2568179391400585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H8">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.113801031399257</v>
+        <v>0.1182046666666667</v>
       </c>
       <c r="N8">
-        <v>0.113801031399257</v>
+        <v>0.354614</v>
       </c>
       <c r="O8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="P8">
-        <v>0.001418746786565207</v>
+        <v>0.001179077200040937</v>
       </c>
       <c r="Q8">
-        <v>2.450710867955791</v>
+        <v>2.417859001777555</v>
       </c>
       <c r="R8">
-        <v>2.450710867955791</v>
+        <v>21.760731015998</v>
       </c>
       <c r="S8">
-        <v>0.0007279154444323953</v>
+        <v>0.0005310180266843499</v>
       </c>
       <c r="T8">
-        <v>0.0007279154444323953</v>
+        <v>0.0005310180266843499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.45485233333333</v>
+      </c>
+      <c r="H9">
+        <v>61.364557</v>
+      </c>
+      <c r="I9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="J9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>22.54136766666667</v>
+      </c>
+      <c r="N9">
+        <v>67.62410300000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2248474059696456</v>
+      </c>
+      <c r="P9">
+        <v>0.2248474059696456</v>
+      </c>
+      <c r="Q9">
+        <v>461.0803470130413</v>
+      </c>
+      <c r="R9">
+        <v>4149.723123117371</v>
+      </c>
+      <c r="S9">
+        <v>0.1012639594921781</v>
+      </c>
+      <c r="T9">
+        <v>0.101263959492178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H10">
+        <v>70.913848</v>
+      </c>
+      <c r="I10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>20.424575</v>
+      </c>
+      <c r="N10">
+        <v>61.273725</v>
+      </c>
+      <c r="O10">
+        <v>0.203732656096709</v>
+      </c>
+      <c r="P10">
+        <v>0.2037326560967089</v>
+      </c>
+      <c r="Q10">
+        <v>482.7950690048667</v>
+      </c>
+      <c r="R10">
+        <v>4345.1556210438</v>
+      </c>
+      <c r="S10">
+        <v>0.1060330170814011</v>
+      </c>
+      <c r="T10">
+        <v>0.1060330170814011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="H9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="I9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="J9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20.4789568437473</v>
-      </c>
-      <c r="N9">
-        <v>20.4789568437473</v>
-      </c>
-      <c r="O9">
-        <v>0.2553092345212588</v>
-      </c>
-      <c r="P9">
-        <v>0.2553092345212588</v>
-      </c>
-      <c r="Q9">
-        <v>441.0153535892892</v>
-      </c>
-      <c r="R9">
-        <v>441.0153535892892</v>
-      </c>
-      <c r="S9">
-        <v>0.1309913345172501</v>
-      </c>
-      <c r="T9">
-        <v>0.1309913345172501</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H11">
+        <v>70.913848</v>
+      </c>
+      <c r="I11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>57.16769933333334</v>
+      </c>
+      <c r="N11">
+        <v>171.503098</v>
+      </c>
+      <c r="O11">
+        <v>0.5702408607336045</v>
+      </c>
+      <c r="P11">
+        <v>0.5702408607336045</v>
+      </c>
+      <c r="Q11">
+        <v>1351.327180344567</v>
+      </c>
+      <c r="R11">
+        <v>12161.94462310111</v>
+      </c>
+      <c r="S11">
+        <v>0.2967828530050556</v>
+      </c>
+      <c r="T11">
+        <v>0.2967828530050556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H12">
+        <v>70.913848</v>
+      </c>
+      <c r="I12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1182046666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.354614</v>
+      </c>
+      <c r="O12">
+        <v>0.001179077200040937</v>
+      </c>
+      <c r="P12">
+        <v>0.001179077200040937</v>
+      </c>
+      <c r="Q12">
+        <v>2.794115921630222</v>
+      </c>
+      <c r="R12">
+        <v>25.147043294672</v>
+      </c>
+      <c r="S12">
+        <v>0.0006136527903159789</v>
+      </c>
+      <c r="T12">
+        <v>0.0006136527903159789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H13">
+        <v>70.913848</v>
+      </c>
+      <c r="I13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>22.54136766666667</v>
+      </c>
+      <c r="N13">
+        <v>67.62410300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.2248474059696456</v>
+      </c>
+      <c r="P13">
+        <v>0.2248474059696456</v>
+      </c>
+      <c r="Q13">
+        <v>532.831706808705</v>
+      </c>
+      <c r="R13">
+        <v>4795.485361278344</v>
+      </c>
+      <c r="S13">
+        <v>0.1170222255708042</v>
+      </c>
+      <c r="T13">
+        <v>0.1170222255708042</v>
       </c>
     </row>
   </sheetData>
